--- a/data/pca/factorExposure/factorExposure_2011-02-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.009762249611233169</v>
+        <v>0.01441564339339695</v>
       </c>
       <c r="C2">
-        <v>-0.001101128047723851</v>
+        <v>0.000729457807894514</v>
       </c>
       <c r="D2">
-        <v>0.03054669069638927</v>
+        <v>-0.002985848612108741</v>
       </c>
       <c r="E2">
-        <v>-0.02029775553242451</v>
+        <v>0.008733735122452147</v>
       </c>
       <c r="F2">
-        <v>0.008032572280387104</v>
+        <v>-0.005357360525551467</v>
       </c>
       <c r="G2">
-        <v>-0.01926601208705795</v>
+        <v>0.01857380015673588</v>
       </c>
       <c r="H2">
-        <v>0.06118792809546847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02133226391682679</v>
+      </c>
+      <c r="I2">
+        <v>-0.01960619106336264</v>
+      </c>
+      <c r="J2">
+        <v>0.001905249843863548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1103773737002359</v>
+        <v>0.1251787250571952</v>
       </c>
       <c r="C4">
-        <v>0.01758265595340278</v>
+        <v>0.04861495995809259</v>
       </c>
       <c r="D4">
-        <v>0.06703675381481396</v>
+        <v>-0.005920180266948865</v>
       </c>
       <c r="E4">
-        <v>-0.04539288207226138</v>
+        <v>-0.004765031971531659</v>
       </c>
       <c r="F4">
-        <v>0.009278302882567993</v>
+        <v>0.006564338777111646</v>
       </c>
       <c r="G4">
-        <v>-0.03881420550589874</v>
+        <v>-0.0164054841805522</v>
       </c>
       <c r="H4">
-        <v>-0.04087960342491805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.0513319667425439</v>
+      </c>
+      <c r="I4">
+        <v>0.09039625290680342</v>
+      </c>
+      <c r="J4">
+        <v>-0.07235480715545493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1296934370929999</v>
+        <v>0.1223124987079788</v>
       </c>
       <c r="C6">
-        <v>0.01808517233442683</v>
+        <v>-0.008344600853483687</v>
       </c>
       <c r="D6">
-        <v>-0.05319812419096088</v>
+        <v>-0.02060171831947378</v>
       </c>
       <c r="E6">
-        <v>-0.03584185452988163</v>
+        <v>0.01748114611743315</v>
       </c>
       <c r="F6">
-        <v>-0.2207145767254512</v>
+        <v>-0.03481914591491061</v>
       </c>
       <c r="G6">
-        <v>0.2123426214484967</v>
+        <v>-0.03670109322954751</v>
       </c>
       <c r="H6">
-        <v>-0.2129945663306976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.04972475591650995</v>
+      </c>
+      <c r="I6">
+        <v>0.08742059118552964</v>
+      </c>
+      <c r="J6">
+        <v>0.2290603060008678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08696688393189028</v>
+        <v>0.07706576969535046</v>
       </c>
       <c r="C7">
-        <v>0.03979696988956803</v>
+        <v>0.03826752689556161</v>
       </c>
       <c r="D7">
-        <v>0.03458137794350982</v>
+        <v>-0.02876076360976167</v>
       </c>
       <c r="E7">
-        <v>-0.04336211758068042</v>
+        <v>0.0378583675916642</v>
       </c>
       <c r="F7">
-        <v>-0.006989481246139856</v>
+        <v>-0.006423391148612477</v>
       </c>
       <c r="G7">
-        <v>0.01229564875090811</v>
+        <v>0.04215040819751191</v>
       </c>
       <c r="H7">
-        <v>-0.009174044833526194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02366155154102268</v>
+      </c>
+      <c r="I7">
+        <v>-0.01350490306592432</v>
+      </c>
+      <c r="J7">
+        <v>-0.08159740164516549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.03993288675960465</v>
+        <v>0.05237269998048504</v>
       </c>
       <c r="C8">
-        <v>-0.04069897037178594</v>
+        <v>-0.0001023146456242129</v>
       </c>
       <c r="D8">
-        <v>0.06977776246609024</v>
+        <v>-0.004085862924158637</v>
       </c>
       <c r="E8">
-        <v>-0.09623488035202811</v>
+        <v>0.0239123051022613</v>
       </c>
       <c r="F8">
-        <v>-0.0629068803171986</v>
+        <v>0.01957700677313589</v>
       </c>
       <c r="G8">
-        <v>-0.146239675059362</v>
+        <v>-0.02859606805998592</v>
       </c>
       <c r="H8">
-        <v>-0.1052150119347513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.06744860719974799</v>
+      </c>
+      <c r="I8">
+        <v>0.08185433231596148</v>
+      </c>
+      <c r="J8">
+        <v>-0.03644466470092551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09654282248315127</v>
+        <v>0.09964264494999706</v>
       </c>
       <c r="C9">
-        <v>0.03260017562508578</v>
+        <v>0.05049123522063995</v>
       </c>
       <c r="D9">
-        <v>0.04217492416770595</v>
+        <v>0.009391810400386662</v>
       </c>
       <c r="E9">
-        <v>-0.04121679225366584</v>
+        <v>0.01076841620120316</v>
       </c>
       <c r="F9">
-        <v>-0.02399527850945877</v>
+        <v>0.01721978402839508</v>
       </c>
       <c r="G9">
-        <v>-0.06931477224211796</v>
+        <v>-0.004311992881283884</v>
       </c>
       <c r="H9">
-        <v>-0.061052079791399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.06001123674651505</v>
+      </c>
+      <c r="I9">
+        <v>0.07644989844539506</v>
+      </c>
+      <c r="J9">
+        <v>-0.041093038074255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.04031210688088691</v>
+        <v>0.05605216013464034</v>
       </c>
       <c r="C10">
-        <v>-0.1779013659189398</v>
+        <v>-0.1908370104999022</v>
       </c>
       <c r="D10">
-        <v>0.01244984491279406</v>
+        <v>-0.007007283886131799</v>
       </c>
       <c r="E10">
-        <v>-0.09287556134386778</v>
+        <v>0.006595037765641393</v>
       </c>
       <c r="F10">
-        <v>-0.02889352810165297</v>
+        <v>0.0104561094325231</v>
       </c>
       <c r="G10">
-        <v>0.04648505535322802</v>
+        <v>0.06067496412254787</v>
       </c>
       <c r="H10">
-        <v>-0.0173713486851446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.01863072889672084</v>
+      </c>
+      <c r="I10">
+        <v>0.02022612713377962</v>
+      </c>
+      <c r="J10">
+        <v>-0.0168765098286177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07832368857659323</v>
+        <v>0.09993188229532948</v>
       </c>
       <c r="C11">
-        <v>0.05479593416410786</v>
+        <v>0.07568379689924644</v>
       </c>
       <c r="D11">
-        <v>-0.02155576710828847</v>
+        <v>-0.0299499152561009</v>
       </c>
       <c r="E11">
-        <v>-0.01463368049897418</v>
+        <v>0.04076351845923383</v>
       </c>
       <c r="F11">
-        <v>-0.01680685191889119</v>
+        <v>0.06872669851756207</v>
       </c>
       <c r="G11">
-        <v>-0.1491191896569216</v>
+        <v>-0.03099046450930602</v>
       </c>
       <c r="H11">
-        <v>0.02062201601967809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.09497977810385956</v>
+      </c>
+      <c r="I11">
+        <v>0.05922805166136894</v>
+      </c>
+      <c r="J11">
+        <v>-0.03389880758929455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07683434599855152</v>
+        <v>0.1050632990723937</v>
       </c>
       <c r="C12">
-        <v>0.03073291256066143</v>
+        <v>0.07393097508733415</v>
       </c>
       <c r="D12">
-        <v>0.01192253578022357</v>
+        <v>-0.02873486336083961</v>
       </c>
       <c r="E12">
-        <v>-0.008741820964351801</v>
+        <v>0.04308305968617973</v>
       </c>
       <c r="F12">
-        <v>-0.0604938178456401</v>
+        <v>0.08050870059654665</v>
       </c>
       <c r="G12">
-        <v>-0.144391536886547</v>
+        <v>-0.02127385123159779</v>
       </c>
       <c r="H12">
-        <v>0.0207866769220222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.09602113585425517</v>
+      </c>
+      <c r="I12">
+        <v>0.04622894645852849</v>
+      </c>
+      <c r="J12">
+        <v>-0.02408786422621439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06495501349605252</v>
+        <v>0.04537542563833821</v>
       </c>
       <c r="C13">
-        <v>0.002458888096920416</v>
+        <v>0.01118027087706054</v>
       </c>
       <c r="D13">
-        <v>0.0306208746898062</v>
+        <v>0.03040970615152151</v>
       </c>
       <c r="E13">
-        <v>-0.01116556536677846</v>
+        <v>0.001621007282492469</v>
       </c>
       <c r="F13">
-        <v>0.0196011807380817</v>
+        <v>8.286021136623097e-05</v>
       </c>
       <c r="G13">
-        <v>-0.1176092911794363</v>
+        <v>-0.01496497128868359</v>
       </c>
       <c r="H13">
-        <v>-0.06250515573173773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.07676928476623229</v>
+      </c>
+      <c r="I13">
+        <v>0.02608987172516202</v>
+      </c>
+      <c r="J13">
+        <v>-0.009040899143589742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05357707117859486</v>
+        <v>0.03319317686180899</v>
       </c>
       <c r="C14">
-        <v>0.00810341252839502</v>
+        <v>0.007481259676398714</v>
       </c>
       <c r="D14">
-        <v>0.01710800018147599</v>
+        <v>-0.004828803565032764</v>
       </c>
       <c r="E14">
-        <v>-0.04685626076147442</v>
+        <v>0.00694126304495649</v>
       </c>
       <c r="F14">
-        <v>0.005564435608161731</v>
+        <v>0.01581335428016287</v>
       </c>
       <c r="G14">
-        <v>0.0007855611456052714</v>
+        <v>0.004442911585882937</v>
       </c>
       <c r="H14">
-        <v>-0.1311295492146756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.01233268577711774</v>
+      </c>
+      <c r="I14">
+        <v>0.04036129067049178</v>
+      </c>
+      <c r="J14">
+        <v>-0.09677394309295519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03768930994544571</v>
+        <v>0.03149577232472073</v>
       </c>
       <c r="C15">
-        <v>-0.01111184849848122</v>
+        <v>0.01673333130809681</v>
       </c>
       <c r="D15">
-        <v>0.003724074250091584</v>
+        <v>0.01054810456936893</v>
       </c>
       <c r="E15">
-        <v>-0.02087063671452336</v>
+        <v>0.009703078824558497</v>
       </c>
       <c r="F15">
-        <v>0.0004904654529594247</v>
+        <v>-0.02333358568093341</v>
       </c>
       <c r="G15">
-        <v>0.0003760709905315696</v>
+        <v>-0.004269548564651868</v>
       </c>
       <c r="H15">
-        <v>-0.06971522745918078</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04468369231817716</v>
+      </c>
+      <c r="I15">
+        <v>0.01196522295795407</v>
+      </c>
+      <c r="J15">
+        <v>-0.03598588445957331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08608482642760987</v>
+        <v>0.1049105944914378</v>
       </c>
       <c r="C16">
-        <v>0.0602310549796943</v>
+        <v>0.06373627400726943</v>
       </c>
       <c r="D16">
-        <v>0.02748722651486666</v>
+        <v>-0.03613323322221121</v>
       </c>
       <c r="E16">
-        <v>-0.01473367611967479</v>
+        <v>0.05768111280338566</v>
       </c>
       <c r="F16">
-        <v>-0.008457688263386035</v>
+        <v>0.07128980531768071</v>
       </c>
       <c r="G16">
-        <v>-0.1312007661435219</v>
+        <v>-0.0204225307495648</v>
       </c>
       <c r="H16">
-        <v>0.0239182572345054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.09071382961743821</v>
+      </c>
+      <c r="I16">
+        <v>0.04093825398797499</v>
+      </c>
+      <c r="J16">
+        <v>-0.03948214683286063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.057223959722715</v>
+        <v>0.0631943780001535</v>
       </c>
       <c r="C20">
-        <v>0.01558353502400647</v>
+        <v>0.04332849284578782</v>
       </c>
       <c r="D20">
-        <v>-0.006336746297318331</v>
+        <v>-0.03663471677895783</v>
       </c>
       <c r="E20">
-        <v>-0.013688383558122</v>
+        <v>0.009176121365327982</v>
       </c>
       <c r="F20">
-        <v>-0.03860433299595947</v>
+        <v>-0.004042900383360123</v>
       </c>
       <c r="G20">
-        <v>-0.1019339204695847</v>
+        <v>-0.002859606792070641</v>
       </c>
       <c r="H20">
-        <v>-0.0345646349662465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.04831402107409051</v>
+      </c>
+      <c r="I20">
+        <v>0.03808145682779729</v>
+      </c>
+      <c r="J20">
+        <v>-0.05344011666500199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02675413016133833</v>
+        <v>0.02304876930813539</v>
       </c>
       <c r="C21">
-        <v>0.02963019914620821</v>
+        <v>0.00644880151714658</v>
       </c>
       <c r="D21">
-        <v>-0.001022047674321752</v>
+        <v>-0.00807373181582813</v>
       </c>
       <c r="E21">
-        <v>0.00208449440289582</v>
+        <v>-0.03418139070381971</v>
       </c>
       <c r="F21">
-        <v>-0.03694598033108941</v>
+        <v>0.0005311752752650793</v>
       </c>
       <c r="G21">
-        <v>0.1662781375395151</v>
+        <v>-0.02998981157678002</v>
       </c>
       <c r="H21">
-        <v>-0.07757329479846391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.01536090114034508</v>
+      </c>
+      <c r="I21">
+        <v>0.04041115667224899</v>
+      </c>
+      <c r="J21">
+        <v>-0.05972768227957607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04104744879693803</v>
+        <v>0.03806256979447271</v>
       </c>
       <c r="C22">
-        <v>0.01219800846368601</v>
+        <v>-0.02755720072016432</v>
       </c>
       <c r="D22">
-        <v>0.6162807044414802</v>
+        <v>0.002280590959469659</v>
       </c>
       <c r="E22">
-        <v>0.1296008825429045</v>
+        <v>0.08378099558429807</v>
       </c>
       <c r="F22">
-        <v>0.06595711121298735</v>
+        <v>-0.5721292313806345</v>
       </c>
       <c r="G22">
-        <v>0.2161801999908166</v>
+        <v>0.0621207631595795</v>
       </c>
       <c r="H22">
-        <v>0.08604189651301311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.3295710115789114</v>
+      </c>
+      <c r="I22">
+        <v>-0.09806120639317117</v>
+      </c>
+      <c r="J22">
+        <v>0.08159574974370409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04147628586885719</v>
+        <v>0.03824722156021157</v>
       </c>
       <c r="C23">
-        <v>0.01301150593013869</v>
+        <v>-0.0272713126268883</v>
       </c>
       <c r="D23">
-        <v>0.6159423132150806</v>
+        <v>0.001878033712493111</v>
       </c>
       <c r="E23">
-        <v>0.1278459261201037</v>
+        <v>0.08533078248663946</v>
       </c>
       <c r="F23">
-        <v>0.06650408766916424</v>
+        <v>-0.5738029379830613</v>
       </c>
       <c r="G23">
-        <v>0.2180311614976597</v>
+        <v>0.0615805837065951</v>
       </c>
       <c r="H23">
-        <v>0.08604728776811058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.3311164760965393</v>
+      </c>
+      <c r="I23">
+        <v>-0.09615503559221296</v>
+      </c>
+      <c r="J23">
+        <v>0.08062344057079539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08454364670451153</v>
+        <v>0.1041234995332438</v>
       </c>
       <c r="C24">
-        <v>0.04372594482828327</v>
+        <v>0.06266232684009879</v>
       </c>
       <c r="D24">
-        <v>0.02991030849801802</v>
+        <v>-0.03285972205395577</v>
       </c>
       <c r="E24">
-        <v>-0.02944703230118663</v>
+        <v>0.03747539791520094</v>
       </c>
       <c r="F24">
-        <v>-0.02975531013345846</v>
+        <v>0.06790064348878251</v>
       </c>
       <c r="G24">
-        <v>-0.1185390564738358</v>
+        <v>-0.008349905071434771</v>
       </c>
       <c r="H24">
-        <v>0.01024012741968064</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.09935560775521071</v>
+      </c>
+      <c r="I24">
+        <v>0.04196486064449741</v>
+      </c>
+      <c r="J24">
+        <v>-0.02717178944309858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07726350379729392</v>
+        <v>0.1063110200243872</v>
       </c>
       <c r="C25">
-        <v>0.01603894777174689</v>
+        <v>0.05306200872687668</v>
       </c>
       <c r="D25">
-        <v>0.0155903962397937</v>
+        <v>-0.03018448575626062</v>
       </c>
       <c r="E25">
-        <v>-0.01958490139808381</v>
+        <v>0.04141722445268511</v>
       </c>
       <c r="F25">
-        <v>-0.04859346547943414</v>
+        <v>0.09530220951726125</v>
       </c>
       <c r="G25">
-        <v>-0.1187431977451311</v>
+        <v>-0.01903040558388598</v>
       </c>
       <c r="H25">
-        <v>0.009147770202005254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.100265903155129</v>
+      </c>
+      <c r="I25">
+        <v>0.04267250297620856</v>
+      </c>
+      <c r="J25">
+        <v>-0.04658072561379525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05081435877609648</v>
+        <v>0.0488229244990693</v>
       </c>
       <c r="C26">
-        <v>0.02528634170606265</v>
+        <v>0.002914560422247113</v>
       </c>
       <c r="D26">
-        <v>0.01219375545002812</v>
+        <v>-0.0270794336865395</v>
       </c>
       <c r="E26">
-        <v>-0.04259755263471239</v>
+        <v>0.01044031033903721</v>
       </c>
       <c r="F26">
-        <v>0.01895566721673984</v>
+        <v>0.008246185219087718</v>
       </c>
       <c r="G26">
-        <v>-0.07031545414562763</v>
+        <v>-0.03298675920492511</v>
       </c>
       <c r="H26">
-        <v>-0.1103803558804602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.05540916969218922</v>
+      </c>
+      <c r="I26">
+        <v>0.0296843995112191</v>
+      </c>
+      <c r="J26">
+        <v>-0.05602004969563337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06335866249427852</v>
+        <v>0.05373763518064765</v>
       </c>
       <c r="C28">
-        <v>-0.3101656029649695</v>
+        <v>-0.3104075262660865</v>
       </c>
       <c r="D28">
-        <v>-0.01207352753095917</v>
+        <v>0.05258055895755647</v>
       </c>
       <c r="E28">
-        <v>-0.02082411910755533</v>
+        <v>0.03450111516301946</v>
       </c>
       <c r="F28">
-        <v>0.005337710974038793</v>
+        <v>0.05354406658504051</v>
       </c>
       <c r="G28">
-        <v>-0.003597815681618717</v>
+        <v>-0.02941901161869874</v>
       </c>
       <c r="H28">
-        <v>0.05985454078049783</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.04949680546469178</v>
+      </c>
+      <c r="I28">
+        <v>0.04948680566190228</v>
+      </c>
+      <c r="J28">
+        <v>-0.003370152176898543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05983484554371143</v>
+        <v>0.03717395480246739</v>
       </c>
       <c r="C29">
-        <v>-0.00370138489492349</v>
+        <v>0.001298930329434623</v>
       </c>
       <c r="D29">
-        <v>0.03967072215443233</v>
+        <v>0.007802041621387887</v>
       </c>
       <c r="E29">
-        <v>-0.02779451954239415</v>
+        <v>0.009958073941163171</v>
       </c>
       <c r="F29">
-        <v>0.006250513619805846</v>
+        <v>0.02213213895606943</v>
       </c>
       <c r="G29">
-        <v>-0.03680249506923941</v>
+        <v>0.007588142829577955</v>
       </c>
       <c r="H29">
-        <v>-0.1031472245394105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.05051561317450726</v>
+      </c>
+      <c r="I29">
+        <v>0.01638166623406543</v>
+      </c>
+      <c r="J29">
+        <v>-0.1123031825270641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1121407403590745</v>
+        <v>0.1224207282562111</v>
       </c>
       <c r="C30">
-        <v>-0.01098400980918993</v>
+        <v>0.05661694391536553</v>
       </c>
       <c r="D30">
-        <v>0.1587143888879485</v>
+        <v>0.01280536950236407</v>
       </c>
       <c r="E30">
-        <v>-0.03363076192471764</v>
+        <v>0.02739413807313502</v>
       </c>
       <c r="F30">
-        <v>-0.2071041729704662</v>
+        <v>0.04387313568655254</v>
       </c>
       <c r="G30">
-        <v>-0.1711617984141945</v>
+        <v>-0.08871416846185044</v>
       </c>
       <c r="H30">
-        <v>0.002928082655469225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1227052987657944</v>
+      </c>
+      <c r="I30">
+        <v>0.07950095359943507</v>
+      </c>
+      <c r="J30">
+        <v>0.1263519046582319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05508976444897794</v>
+        <v>0.0402804064568188</v>
       </c>
       <c r="C31">
-        <v>0.03020679044140911</v>
+        <v>0.02085502630839275</v>
       </c>
       <c r="D31">
-        <v>0.02322454202166451</v>
+        <v>-0.01774500008427131</v>
       </c>
       <c r="E31">
-        <v>0.01102121120248113</v>
+        <v>0.02136040499964286</v>
       </c>
       <c r="F31">
-        <v>2.630284183988977e-05</v>
+        <v>-0.00756595324283478</v>
       </c>
       <c r="G31">
-        <v>-0.02577605349648662</v>
+        <v>-0.002253058167487043</v>
       </c>
       <c r="H31">
-        <v>-0.04592084220011473</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.009191372656976584</v>
+      </c>
+      <c r="I31">
+        <v>0.02150778021505053</v>
+      </c>
+      <c r="J31">
+        <v>-0.0651280854486237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03493373923141051</v>
+        <v>0.05537244048177885</v>
       </c>
       <c r="C32">
-        <v>-0.01898651124312791</v>
+        <v>-0.00161070278783614</v>
       </c>
       <c r="D32">
-        <v>0.06918357143066012</v>
+        <v>-0.02100907944780026</v>
       </c>
       <c r="E32">
-        <v>0.01189178623505885</v>
+        <v>-0.006171497286969195</v>
       </c>
       <c r="F32">
-        <v>0.08756485634323138</v>
+        <v>0.04406129942390418</v>
       </c>
       <c r="G32">
-        <v>-0.07532670235887585</v>
+        <v>-0.06813629725282963</v>
       </c>
       <c r="H32">
-        <v>-0.02881306927899943</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.0390259200863335</v>
+      </c>
+      <c r="I32">
+        <v>-0.01364785256025859</v>
+      </c>
+      <c r="J32">
+        <v>-0.02383572202243626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1129001246733545</v>
+        <v>0.1135862046538421</v>
       </c>
       <c r="C33">
-        <v>0.01241881610688256</v>
+        <v>0.04706080635650665</v>
       </c>
       <c r="D33">
-        <v>0.02344392851717256</v>
+        <v>-0.0008715294204586668</v>
       </c>
       <c r="E33">
-        <v>0.0239927000236745</v>
+        <v>0.07000251164509873</v>
       </c>
       <c r="F33">
-        <v>-0.01766162889528882</v>
+        <v>0.04689170550363687</v>
       </c>
       <c r="G33">
-        <v>-0.06705967196283015</v>
+        <v>-0.01924953868236037</v>
       </c>
       <c r="H33">
-        <v>-0.07191016735369227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.0686298755878077</v>
+      </c>
+      <c r="I33">
+        <v>0.01719738281172399</v>
+      </c>
+      <c r="J33">
+        <v>-0.02207398792849696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06963861527207155</v>
+        <v>0.08987356853359206</v>
       </c>
       <c r="C34">
-        <v>0.03452144775796175</v>
+        <v>0.04544226495019841</v>
       </c>
       <c r="D34">
-        <v>0.002974413004721925</v>
+        <v>-0.0300863127515055</v>
       </c>
       <c r="E34">
-        <v>0.0005244086595558575</v>
+        <v>0.03661117988638907</v>
       </c>
       <c r="F34">
-        <v>0.001251174242675446</v>
+        <v>0.07731578898527354</v>
       </c>
       <c r="G34">
-        <v>-0.1010651922724592</v>
+        <v>-0.01253883993283559</v>
       </c>
       <c r="H34">
-        <v>-0.0001780611646260444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.1047752773610904</v>
+      </c>
+      <c r="I34">
+        <v>0.008222239438904214</v>
+      </c>
+      <c r="J34">
+        <v>-0.04473125546698728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04285757109526034</v>
+        <v>0.0208418464940182</v>
       </c>
       <c r="C35">
-        <v>0.004984255558919085</v>
+        <v>0.00571323465777431</v>
       </c>
       <c r="D35">
-        <v>-0.02629470506838835</v>
+        <v>0.01047359608336497</v>
       </c>
       <c r="E35">
-        <v>0.01106097000654</v>
+        <v>0.005486838769956396</v>
       </c>
       <c r="F35">
-        <v>-0.04161082458359088</v>
+        <v>0.01814972653014332</v>
       </c>
       <c r="G35">
-        <v>-0.03315523220665818</v>
+        <v>-0.004976705011521892</v>
       </c>
       <c r="H35">
-        <v>0.01597198632937898</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.03264254418312769</v>
+      </c>
+      <c r="I35">
+        <v>0.006401375648290543</v>
+      </c>
+      <c r="J35">
+        <v>-0.07580792014728688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03986658143230086</v>
+        <v>0.03126129798928845</v>
       </c>
       <c r="C36">
-        <v>-0.0001937948891621671</v>
+        <v>0.014593427941859</v>
       </c>
       <c r="D36">
-        <v>0.02211065195075271</v>
+        <v>0.005474994092107977</v>
       </c>
       <c r="E36">
-        <v>-0.02313410764813148</v>
+        <v>0.006718863066568024</v>
       </c>
       <c r="F36">
-        <v>-0.03711963891584182</v>
+        <v>-0.01039584723812998</v>
       </c>
       <c r="G36">
-        <v>-0.05689957892502752</v>
+        <v>-0.02561900632751869</v>
       </c>
       <c r="H36">
-        <v>-0.06374222210579528</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.02916163969863243</v>
+      </c>
+      <c r="I36">
+        <v>0.04024950411479655</v>
+      </c>
+      <c r="J36">
+        <v>-0.01955556895282892</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05166003518541302</v>
+        <v>0.01557613931168236</v>
       </c>
       <c r="C38">
-        <v>0.02306188129349074</v>
+        <v>0.004420815029216454</v>
       </c>
       <c r="D38">
-        <v>0.005237624527034718</v>
+        <v>-0.005130590125623992</v>
       </c>
       <c r="E38">
-        <v>-0.005425022978886133</v>
+        <v>0.007740110359579477</v>
       </c>
       <c r="F38">
-        <v>0.01820570465529276</v>
+        <v>-0.02201313234970641</v>
       </c>
       <c r="G38">
-        <v>-0.0609201346075267</v>
+        <v>0.02449428938963017</v>
       </c>
       <c r="H38">
-        <v>-0.01129597225593919</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01084243781155799</v>
+      </c>
+      <c r="I38">
+        <v>-0.03584643051479447</v>
+      </c>
+      <c r="J38">
+        <v>0.01533408476464192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1072171662910583</v>
+        <v>0.1584284867190983</v>
       </c>
       <c r="C39">
-        <v>0.04291041249948313</v>
+        <v>0.1052469436237</v>
       </c>
       <c r="D39">
-        <v>0.06568357744719654</v>
+        <v>-0.02642566242020519</v>
       </c>
       <c r="E39">
-        <v>-0.006839175984218155</v>
+        <v>0.05488226710773096</v>
       </c>
       <c r="F39">
-        <v>-0.008313285152587365</v>
+        <v>0.1643298521151678</v>
       </c>
       <c r="G39">
-        <v>-0.1623528408454112</v>
+        <v>-0.04316174323448485</v>
       </c>
       <c r="H39">
-        <v>0.08606188319423952</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1513109612350576</v>
+      </c>
+      <c r="I39">
+        <v>0.0140222779567558</v>
+      </c>
+      <c r="J39">
+        <v>-0.09531134429320358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04590369908535508</v>
+        <v>0.01712665774236128</v>
       </c>
       <c r="C40">
-        <v>0.01653476808035875</v>
+        <v>0.003170205784004888</v>
       </c>
       <c r="D40">
-        <v>0.04735260708488356</v>
+        <v>-0.01255351555244607</v>
       </c>
       <c r="E40">
-        <v>0.021601550059384</v>
+        <v>-0.008614771491569171</v>
       </c>
       <c r="F40">
-        <v>-0.09526742628122037</v>
+        <v>-0.04264803793383719</v>
       </c>
       <c r="G40">
-        <v>-0.2809599287764934</v>
+        <v>-0.02073390361061747</v>
       </c>
       <c r="H40">
-        <v>0.1034679568725109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.08730119453666295</v>
+      </c>
+      <c r="I40">
+        <v>0.05446894543650505</v>
+      </c>
+      <c r="J40">
+        <v>-0.007037361532046711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04693199470423131</v>
+        <v>0.02735464453595067</v>
       </c>
       <c r="C41">
-        <v>0.03599523459705936</v>
+        <v>-0.0009559343325721758</v>
       </c>
       <c r="D41">
-        <v>-0.02262999107810008</v>
+        <v>-0.03167076804952071</v>
       </c>
       <c r="E41">
-        <v>6.00302896745065e-05</v>
+        <v>0.006612192341720427</v>
       </c>
       <c r="F41">
-        <v>0.02348593201123036</v>
+        <v>0.01082301119209216</v>
       </c>
       <c r="G41">
-        <v>-0.05343396598176121</v>
+        <v>0.004983413762911264</v>
       </c>
       <c r="H41">
-        <v>-0.01269490839127863</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.01036367661962995</v>
+      </c>
+      <c r="I41">
+        <v>0.003647111984622399</v>
+      </c>
+      <c r="J41">
+        <v>-0.05517895410864305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.0721462757631168</v>
+        <v>0.03922243042444939</v>
       </c>
       <c r="C43">
-        <v>0.03087439840328557</v>
+        <v>0.002558237007450348</v>
       </c>
       <c r="D43">
-        <v>0.03551487510216861</v>
+        <v>-0.03812150444064481</v>
       </c>
       <c r="E43">
-        <v>-0.004786677993645452</v>
+        <v>0.03259659130718093</v>
       </c>
       <c r="F43">
-        <v>0.03736676590909353</v>
+        <v>-0.00376463824230486</v>
       </c>
       <c r="G43">
-        <v>-0.0168378855892567</v>
+        <v>-0.0002048888422849811</v>
       </c>
       <c r="H43">
-        <v>-0.01312848361393231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.00846243743153657</v>
+      </c>
+      <c r="I43">
+        <v>0.006251092951366852</v>
+      </c>
+      <c r="J43">
+        <v>-0.06581998862073296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.08105304042032063</v>
+        <v>0.127343433717182</v>
       </c>
       <c r="C44">
-        <v>0.003870752559977355</v>
+        <v>0.05952796615074967</v>
       </c>
       <c r="D44">
-        <v>0.06580739233051852</v>
+        <v>0.01044095233701259</v>
       </c>
       <c r="E44">
-        <v>-0.1078440743765254</v>
+        <v>0.03335585116393214</v>
       </c>
       <c r="F44">
-        <v>0.01609516785974797</v>
+        <v>0.01906161157493918</v>
       </c>
       <c r="G44">
-        <v>-0.1085493693629146</v>
+        <v>0.05282238223472776</v>
       </c>
       <c r="H44">
-        <v>-0.04632729938760212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.212954232384059</v>
+      </c>
+      <c r="I44">
+        <v>0.08296991196460296</v>
+      </c>
+      <c r="J44">
+        <v>0.0917897552773585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05305022789104147</v>
+        <v>0.02227958990003185</v>
       </c>
       <c r="C46">
-        <v>0.03861789851389246</v>
+        <v>-0.001616363639439556</v>
       </c>
       <c r="D46">
-        <v>0.05020977482368197</v>
+        <v>-0.02076593472332914</v>
       </c>
       <c r="E46">
-        <v>-0.002656411570317836</v>
+        <v>0.02027140008497595</v>
       </c>
       <c r="F46">
-        <v>0.00741474844709049</v>
+        <v>-0.0274378782121962</v>
       </c>
       <c r="G46">
-        <v>0.0002207533814864832</v>
+        <v>0.01040091170775869</v>
       </c>
       <c r="H46">
-        <v>-0.08732307629262472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04484339620971003</v>
+      </c>
+      <c r="I46">
+        <v>-0.0144343482151332</v>
+      </c>
+      <c r="J46">
+        <v>-0.107007442115592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05057894470460495</v>
+        <v>0.04644644783421692</v>
       </c>
       <c r="C47">
-        <v>-0.003824411718398193</v>
+        <v>-0.005109035372372076</v>
       </c>
       <c r="D47">
-        <v>0.04756793554550356</v>
+        <v>-0.01186402404413771</v>
       </c>
       <c r="E47">
-        <v>0.02703608921497814</v>
+        <v>0.01218441813125261</v>
       </c>
       <c r="F47">
-        <v>-0.04698925565451467</v>
+        <v>-0.00612489912705856</v>
       </c>
       <c r="G47">
-        <v>-0.01575119393292269</v>
+        <v>-0.03148333183321801</v>
       </c>
       <c r="H47">
-        <v>-0.05017433965587605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.04129344072232776</v>
+      </c>
+      <c r="I47">
+        <v>0.043557482578744</v>
+      </c>
+      <c r="J47">
+        <v>-0.05551655875067991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04188655805826827</v>
+        <v>0.04596428411527041</v>
       </c>
       <c r="C48">
-        <v>0.004019991081863423</v>
+        <v>0.01624143293857188</v>
       </c>
       <c r="D48">
-        <v>0.03121500991406012</v>
+        <v>0.01093419869922615</v>
       </c>
       <c r="E48">
-        <v>0.04287358670071583</v>
+        <v>0.01668052986064991</v>
       </c>
       <c r="F48">
-        <v>-0.049999179764739</v>
+        <v>0.007772466727933519</v>
       </c>
       <c r="G48">
-        <v>-0.03211964997791918</v>
+        <v>-0.03477813598565307</v>
       </c>
       <c r="H48">
-        <v>-0.0200249255522313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05038611624363313</v>
+      </c>
+      <c r="I48">
+        <v>0.03248845072780283</v>
+      </c>
+      <c r="J48">
+        <v>-0.06938282640882162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.242928008889289</v>
+        <v>0.227057813333944</v>
       </c>
       <c r="C49">
-        <v>0.06482716558070542</v>
+        <v>-0.01354726232261498</v>
       </c>
       <c r="D49">
-        <v>-0.1066172862527899</v>
+        <v>-0.0609101060895735</v>
       </c>
       <c r="E49">
-        <v>-0.002553445451508636</v>
+        <v>-0.02520914615171572</v>
       </c>
       <c r="F49">
-        <v>0.03286324082081878</v>
+        <v>0.03026545652271838</v>
       </c>
       <c r="G49">
-        <v>0.1974528808267121</v>
+        <v>0.1143012589520907</v>
       </c>
       <c r="H49">
-        <v>0.1124410201071534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.09522294077754306</v>
+      </c>
+      <c r="I49">
+        <v>-0.0824045098370688</v>
+      </c>
+      <c r="J49">
+        <v>0.2471158340723534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05673289033245309</v>
+        <v>0.04617577997038472</v>
       </c>
       <c r="C50">
-        <v>0.01651091440022903</v>
+        <v>0.01633734535367439</v>
       </c>
       <c r="D50">
-        <v>0.02513802458592177</v>
+        <v>-0.02431236181683639</v>
       </c>
       <c r="E50">
-        <v>0.02121229400150443</v>
+        <v>0.01446775444480491</v>
       </c>
       <c r="F50">
-        <v>0.01079771507901526</v>
+        <v>0.001891343025567439</v>
       </c>
       <c r="G50">
-        <v>-0.01873672377938688</v>
+        <v>-0.006208147415358463</v>
       </c>
       <c r="H50">
-        <v>-0.07404602228430499</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02506100165384666</v>
+      </c>
+      <c r="I50">
+        <v>0.008469589170252922</v>
+      </c>
+      <c r="J50">
+        <v>-0.05665744131761207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03205925459805271</v>
+        <v>0.01323799702828536</v>
       </c>
       <c r="C51">
-        <v>0.01365570415399881</v>
+        <v>-0.009188673061633543</v>
       </c>
       <c r="D51">
-        <v>0.01439798803666784</v>
+        <v>-0.002209064126145842</v>
       </c>
       <c r="E51">
-        <v>-0.02159263315795522</v>
+        <v>0.01477562751886553</v>
       </c>
       <c r="F51">
-        <v>0.03558072663276415</v>
+        <v>-0.005547830178111295</v>
       </c>
       <c r="G51">
-        <v>0.003052695391223878</v>
+        <v>0.02544370877840366</v>
       </c>
       <c r="H51">
-        <v>0.04298850923811376</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.006763049693540264</v>
+      </c>
+      <c r="I51">
+        <v>0.002988881789015405</v>
+      </c>
+      <c r="J51">
+        <v>0.01165225550597412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1102127905414276</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.05779350079393928</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.03287948232224409</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.0266478226178797</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01693470596646635</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.01573616963687461</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.03483158424538182</v>
+      </c>
+      <c r="I52">
+        <v>-0.05962217855889576</v>
+      </c>
+      <c r="J52">
+        <v>-0.05731493680597111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1648788663309842</v>
+        <v>0.1599686793978214</v>
       </c>
       <c r="C53">
-        <v>0.01357447863882763</v>
+        <v>-0.0004806551567471939</v>
       </c>
       <c r="D53">
-        <v>-0.004595516613392393</v>
+        <v>0.006141407212445739</v>
       </c>
       <c r="E53">
-        <v>0.0502053627591532</v>
+        <v>-0.01969899984154766</v>
       </c>
       <c r="F53">
-        <v>0.1701390239643012</v>
+        <v>-0.03919650063308609</v>
       </c>
       <c r="G53">
-        <v>-0.003786586952146219</v>
+        <v>0.06699821121334706</v>
       </c>
       <c r="H53">
-        <v>-0.04826950288180348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.07276309900559229</v>
+      </c>
+      <c r="I53">
+        <v>-0.1513736983594226</v>
+      </c>
+      <c r="J53">
+        <v>-0.05616210948438725</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05278370973124644</v>
+        <v>0.05228398861844352</v>
       </c>
       <c r="C54">
-        <v>0.003347996842388169</v>
+        <v>0.005235395832252868</v>
       </c>
       <c r="D54">
-        <v>0.02609865183972986</v>
+        <v>-0.009577098900182265</v>
       </c>
       <c r="E54">
-        <v>-0.00320221678359995</v>
+        <v>0.01192550951566454</v>
       </c>
       <c r="F54">
-        <v>-0.03226789379739523</v>
+        <v>-0.02098881971014604</v>
       </c>
       <c r="G54">
-        <v>-0.03328154128282517</v>
+        <v>-0.02358428678439891</v>
       </c>
       <c r="H54">
-        <v>-0.08563213214000706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.05334071806959827</v>
+      </c>
+      <c r="I54">
+        <v>0.06795887520691113</v>
+      </c>
+      <c r="J54">
+        <v>-0.1042241387893349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.1029957991497505</v>
+        <v>0.0937336667090093</v>
       </c>
       <c r="C55">
-        <v>0.01598815866507134</v>
+        <v>0.02115083131096992</v>
       </c>
       <c r="D55">
-        <v>0.008215289526876399</v>
+        <v>0.01860959046341877</v>
       </c>
       <c r="E55">
-        <v>0.02545631345813029</v>
+        <v>0.02542199149556741</v>
       </c>
       <c r="F55">
-        <v>0.07429640772822896</v>
+        <v>0.003124086515743871</v>
       </c>
       <c r="G55">
-        <v>-0.03887992408220434</v>
+        <v>0.01358928947685078</v>
       </c>
       <c r="H55">
-        <v>-0.08225440424516674</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.01591047687307673</v>
+      </c>
+      <c r="I55">
+        <v>-0.05713624880673369</v>
+      </c>
+      <c r="J55">
+        <v>-0.06993243271864924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.166108208107811</v>
+        <v>0.1631324819580064</v>
       </c>
       <c r="C56">
-        <v>0.01145379097960708</v>
+        <v>0.01375142172594603</v>
       </c>
       <c r="D56">
-        <v>-0.01273765236306242</v>
+        <v>-0.008717902090567383</v>
       </c>
       <c r="E56">
-        <v>0.08319121570465529</v>
+        <v>0.0104650039606688</v>
       </c>
       <c r="F56">
-        <v>0.1584017772393628</v>
+        <v>-0.001773246526697494</v>
       </c>
       <c r="G56">
-        <v>-0.01826903829113384</v>
+        <v>0.05201409382204017</v>
       </c>
       <c r="H56">
-        <v>-0.05497033037753275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.006448170444640883</v>
+      </c>
+      <c r="I56">
+        <v>-0.113496624585757</v>
+      </c>
+      <c r="J56">
+        <v>-0.06733302087130147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01764435986453564</v>
+        <v>0.03549678458500808</v>
       </c>
       <c r="C58">
-        <v>0.0593820020131884</v>
+        <v>0.02839537190442405</v>
       </c>
       <c r="D58">
-        <v>0.09431914215494999</v>
+        <v>-0.0154369562101795</v>
       </c>
       <c r="E58">
-        <v>-0.006040662327314331</v>
+        <v>-0.007896736499336605</v>
       </c>
       <c r="F58">
-        <v>-0.5406408278972601</v>
+        <v>-0.0592403711544587</v>
       </c>
       <c r="G58">
-        <v>-0.04395447163496305</v>
+        <v>-0.02916380754278055</v>
       </c>
       <c r="H58">
-        <v>0.2565667221591085</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.09933311956940907</v>
+      </c>
+      <c r="I58">
+        <v>-0.03288820544946602</v>
+      </c>
+      <c r="J58">
+        <v>-0.09107534180462201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1534655651336915</v>
+        <v>0.1283478548838708</v>
       </c>
       <c r="C59">
-        <v>-0.3672727520748406</v>
+        <v>-0.310343431342655</v>
       </c>
       <c r="D59">
-        <v>-0.02446367983822545</v>
+        <v>0.05054586859013003</v>
       </c>
       <c r="E59">
-        <v>-0.03932305686263575</v>
+        <v>0.04284739315921267</v>
       </c>
       <c r="F59">
-        <v>0.05311031278275612</v>
+        <v>0.03725759157958897</v>
       </c>
       <c r="G59">
-        <v>-0.004663120964452622</v>
+        <v>0.02798547248358546</v>
       </c>
       <c r="H59">
-        <v>0.04863581401359422</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.03668864313154118</v>
+      </c>
+      <c r="I59">
+        <v>0.06699976815262658</v>
+      </c>
+      <c r="J59">
+        <v>-0.02307902064448567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2783896898988484</v>
+        <v>0.2803112439883453</v>
       </c>
       <c r="C60">
-        <v>0.04886116367737334</v>
+        <v>0.04162823432374329</v>
       </c>
       <c r="D60">
-        <v>-0.06508770701671203</v>
+        <v>0.008567570626298256</v>
       </c>
       <c r="E60">
-        <v>-0.05127996264705939</v>
+        <v>-0.079085961191544</v>
       </c>
       <c r="F60">
-        <v>0.01038087910327595</v>
+        <v>0.03855079350128959</v>
       </c>
       <c r="G60">
-        <v>0.1517841948569715</v>
+        <v>0.1982731719068799</v>
       </c>
       <c r="H60">
-        <v>0.05615417396977834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1157971884587889</v>
+      </c>
+      <c r="I60">
+        <v>-0.02821194729139993</v>
+      </c>
+      <c r="J60">
+        <v>0.4346793516388822</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.0940419470322692</v>
+        <v>0.1190352859945405</v>
       </c>
       <c r="C61">
-        <v>0.02046311698010426</v>
+        <v>0.05362541857175056</v>
       </c>
       <c r="D61">
-        <v>0.02518422877717272</v>
+        <v>0.004947757232693351</v>
       </c>
       <c r="E61">
-        <v>-0.0107346810796364</v>
+        <v>0.03755817340578061</v>
       </c>
       <c r="F61">
-        <v>0.01439112934303642</v>
+        <v>0.1161645345942802</v>
       </c>
       <c r="G61">
-        <v>-0.09081667375860267</v>
+        <v>-0.03141096846701866</v>
       </c>
       <c r="H61">
-        <v>0.01567899453928958</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1367057385323931</v>
+      </c>
+      <c r="I61">
+        <v>0.05979325997192872</v>
+      </c>
+      <c r="J61">
+        <v>-0.117200973724633</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1415322330096787</v>
+        <v>0.1649323103505019</v>
       </c>
       <c r="C62">
-        <v>0.04207536723681554</v>
+        <v>0.0317208493192537</v>
       </c>
       <c r="D62">
-        <v>-0.05130626635945627</v>
+        <v>-0.002902787513398233</v>
       </c>
       <c r="E62">
-        <v>0.09696435229561565</v>
+        <v>-0.004633644767269979</v>
       </c>
       <c r="F62">
-        <v>0.1591290218761919</v>
+        <v>-0.008631670637920344</v>
       </c>
       <c r="G62">
-        <v>0.006747517477117502</v>
+        <v>0.01881681849196234</v>
       </c>
       <c r="H62">
-        <v>-0.05904907861796643</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.03284369629152652</v>
+      </c>
+      <c r="I62">
+        <v>-0.1145383578203293</v>
+      </c>
+      <c r="J62">
+        <v>-0.05190246397665434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04488021204957782</v>
+        <v>0.05324261347425345</v>
       </c>
       <c r="C63">
-        <v>0.01684310010134914</v>
+        <v>0.02260146238179422</v>
       </c>
       <c r="D63">
-        <v>-1.16464213598552e-05</v>
+        <v>0.006145842972531663</v>
       </c>
       <c r="E63">
-        <v>0.01207852765599414</v>
+        <v>0.02773294472321941</v>
       </c>
       <c r="F63">
-        <v>-0.02079624293176335</v>
+        <v>0.002752069282599692</v>
       </c>
       <c r="G63">
-        <v>-0.02219613269090215</v>
+        <v>-0.0597012911480452</v>
       </c>
       <c r="H63">
-        <v>-0.1146782884330917</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.03186932774165245</v>
+      </c>
+      <c r="I63">
+        <v>0.0350115894826204</v>
+      </c>
+      <c r="J63">
+        <v>-0.0930284193818685</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1098372929925575</v>
+        <v>0.1030244110434855</v>
       </c>
       <c r="C64">
-        <v>0.01111767470649603</v>
+        <v>0.01913450141905422</v>
       </c>
       <c r="D64">
-        <v>0.01814074560163711</v>
+        <v>-0.006818987438166922</v>
       </c>
       <c r="E64">
-        <v>-0.0338918387239657</v>
+        <v>0.01024722497163809</v>
       </c>
       <c r="F64">
-        <v>0.006440698390339381</v>
+        <v>0.004638761970416715</v>
       </c>
       <c r="G64">
-        <v>-0.03407338161792959</v>
+        <v>0.03831064042717582</v>
       </c>
       <c r="H64">
-        <v>-0.02044198755013437</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.04613745631757246</v>
+      </c>
+      <c r="I64">
+        <v>0.02484376470843971</v>
+      </c>
+      <c r="J64">
+        <v>-0.02861144501549917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1088452195411101</v>
+        <v>0.1175671868213105</v>
       </c>
       <c r="C65">
-        <v>0.01896823664284161</v>
+        <v>0.005100716726425554</v>
       </c>
       <c r="D65">
-        <v>-0.01402330516362676</v>
+        <v>0.006431320725184984</v>
       </c>
       <c r="E65">
-        <v>-0.03438658520417844</v>
+        <v>-0.01285277569681546</v>
       </c>
       <c r="F65">
-        <v>-0.4284325060090918</v>
+        <v>0.01657403917828421</v>
       </c>
       <c r="G65">
-        <v>0.2927233546976803</v>
+        <v>-0.07154960868014072</v>
       </c>
       <c r="H65">
-        <v>-0.5161544678960349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.02822006210753084</v>
+      </c>
+      <c r="I65">
+        <v>0.08013104880552556</v>
+      </c>
+      <c r="J65">
+        <v>0.2679406224813415</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1522575311880395</v>
+        <v>0.189756189060125</v>
       </c>
       <c r="C66">
-        <v>0.05657606170958479</v>
+        <v>0.1077963174203887</v>
       </c>
       <c r="D66">
-        <v>0.03017710527474022</v>
+        <v>-0.03811007748584951</v>
       </c>
       <c r="E66">
-        <v>-0.03359818442383648</v>
+        <v>0.06202919026830099</v>
       </c>
       <c r="F66">
-        <v>0.0465422950488347</v>
+        <v>0.1558896594579084</v>
       </c>
       <c r="G66">
-        <v>-0.2782972460928679</v>
+        <v>-0.03554231070948251</v>
       </c>
       <c r="H66">
-        <v>0.1572483638524198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1511309976337943</v>
+      </c>
+      <c r="I66">
+        <v>0.02025845322681954</v>
+      </c>
+      <c r="J66">
+        <v>-0.06023213377681076</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1075788527244567</v>
+        <v>0.08246614766498221</v>
       </c>
       <c r="C67">
-        <v>0.0416742248913004</v>
+        <v>0.01842595777496875</v>
       </c>
       <c r="D67">
-        <v>-0.01256993762196241</v>
+        <v>0.0129847695100114</v>
       </c>
       <c r="E67">
-        <v>-0.0305093120468001</v>
+        <v>0.08570542056985958</v>
       </c>
       <c r="F67">
-        <v>0.05127814097327092</v>
+        <v>-0.01196991525816007</v>
       </c>
       <c r="G67">
-        <v>-0.04560639149574194</v>
+        <v>0.06550214184673774</v>
       </c>
       <c r="H67">
-        <v>-0.006489193410226641</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.07589304155788214</v>
+      </c>
+      <c r="I67">
+        <v>0.04283135093306772</v>
+      </c>
+      <c r="J67">
+        <v>0.1319209699846709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.04215203667530287</v>
+        <v>0.04705619166064965</v>
       </c>
       <c r="C68">
-        <v>-0.2924075857534846</v>
+        <v>-0.2834254417777241</v>
       </c>
       <c r="D68">
-        <v>0.004855053665029512</v>
+        <v>0.05170383887434334</v>
       </c>
       <c r="E68">
-        <v>0.01985365409466958</v>
+        <v>0.03085754299780901</v>
       </c>
       <c r="F68">
-        <v>-0.01714616399511145</v>
+        <v>0.05580732867094364</v>
       </c>
       <c r="G68">
-        <v>0.02839997434532228</v>
+        <v>-0.04008473646554933</v>
       </c>
       <c r="H68">
-        <v>-0.03009114679697827</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04557866155897689</v>
+      </c>
+      <c r="I68">
+        <v>0.04812244668066908</v>
+      </c>
+      <c r="J68">
+        <v>0.004381494642963945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.04921131708154478</v>
+        <v>0.03775501579267179</v>
       </c>
       <c r="C69">
-        <v>0.008847473752779847</v>
+        <v>-0.005414006309244961</v>
       </c>
       <c r="D69">
-        <v>0.002557741551241685</v>
+        <v>0.01464077594150674</v>
       </c>
       <c r="E69">
-        <v>0.04497841493163229</v>
+        <v>0.02434060388875668</v>
       </c>
       <c r="F69">
-        <v>-0.004573618206689955</v>
+        <v>0.004236862082508682</v>
       </c>
       <c r="G69">
-        <v>-0.01123247587083519</v>
+        <v>-0.0004716043593204386</v>
       </c>
       <c r="H69">
-        <v>-0.0007985178079171897</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01650052272632806</v>
+      </c>
+      <c r="I69">
+        <v>0.0002937418125567673</v>
+      </c>
+      <c r="J69">
+        <v>-0.01692962185520545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08200718656136578</v>
+        <v>0.04205081065181286</v>
       </c>
       <c r="C70">
-        <v>0.01121739044665806</v>
+        <v>-0.01018307850572267</v>
       </c>
       <c r="D70">
-        <v>-0.02934834922650632</v>
+        <v>0.02266272342002233</v>
       </c>
       <c r="E70">
-        <v>-0.0444584588674451</v>
+        <v>0.02963808717119404</v>
       </c>
       <c r="F70">
-        <v>0.03916111708854616</v>
+        <v>0.01383452295352701</v>
       </c>
       <c r="G70">
-        <v>0.05450564520698736</v>
+        <v>0.04998592954554332</v>
       </c>
       <c r="H70">
-        <v>0.01617597309894894</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.01525583968970213</v>
+      </c>
+      <c r="I70">
+        <v>0.008401168503380355</v>
+      </c>
+      <c r="J70">
+        <v>-0.08338619568126793</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.0545264073786691</v>
+        <v>0.05802232217519757</v>
       </c>
       <c r="C71">
-        <v>-0.3042893716234394</v>
+        <v>-0.2997955905671756</v>
       </c>
       <c r="D71">
-        <v>-0.001572439548693541</v>
+        <v>0.05385460392410546</v>
       </c>
       <c r="E71">
-        <v>-0.0008317478502107884</v>
+        <v>0.03398395766591805</v>
       </c>
       <c r="F71">
-        <v>-0.003204708015045554</v>
+        <v>0.05333531483307184</v>
       </c>
       <c r="G71">
-        <v>-5.466812147634491e-05</v>
+        <v>-0.01333004223864417</v>
       </c>
       <c r="H71">
-        <v>0.01265974583860805</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.06044512689435197</v>
+      </c>
+      <c r="I71">
+        <v>0.04315367614610364</v>
+      </c>
+      <c r="J71">
+        <v>0.02959106190439651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1296579881714169</v>
+        <v>0.1325126321296765</v>
       </c>
       <c r="C72">
-        <v>-0.0113555825493799</v>
+        <v>-0.02629571449244788</v>
       </c>
       <c r="D72">
-        <v>-0.08739492214993615</v>
+        <v>-0.01500086416186422</v>
       </c>
       <c r="E72">
-        <v>0.1249693894381518</v>
+        <v>0.01094235420054816</v>
       </c>
       <c r="F72">
-        <v>0.0004532625844423592</v>
+        <v>0.004535440729050436</v>
       </c>
       <c r="G72">
-        <v>-0.03662460036972183</v>
+        <v>-0.03158953146925707</v>
       </c>
       <c r="H72">
-        <v>-0.06472423317456885</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.04970195714071686</v>
+      </c>
+      <c r="I72">
+        <v>-0.02082035571187722</v>
+      </c>
+      <c r="J72">
+        <v>0.01713887452783651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2711062729695782</v>
+        <v>0.2301856389746345</v>
       </c>
       <c r="C73">
-        <v>0.1326335615207388</v>
+        <v>0.007475314421080833</v>
       </c>
       <c r="D73">
-        <v>-0.1387034869909427</v>
+        <v>-0.02994286624889028</v>
       </c>
       <c r="E73">
-        <v>-0.1049061821927563</v>
+        <v>-0.00526443192920218</v>
       </c>
       <c r="F73">
-        <v>-0.08892428137228545</v>
+        <v>0.04113418273146806</v>
       </c>
       <c r="G73">
-        <v>0.3455799702289142</v>
+        <v>0.2473995288178548</v>
       </c>
       <c r="H73">
-        <v>0.4394025050438452</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.1669349856793148</v>
+      </c>
+      <c r="I73">
+        <v>-0.1979659254645119</v>
+      </c>
+      <c r="J73">
+        <v>0.2554877733291722</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1012410787465717</v>
+        <v>0.1116789219317681</v>
       </c>
       <c r="C74">
-        <v>0.03810050783922606</v>
+        <v>0.01975432255005256</v>
       </c>
       <c r="D74">
-        <v>0.008533688483622475</v>
+        <v>-0.02117947305811702</v>
       </c>
       <c r="E74">
-        <v>0.02024246021502655</v>
+        <v>0.002828100395169997</v>
       </c>
       <c r="F74">
-        <v>0.09165646980574599</v>
+        <v>-0.01793494190705034</v>
       </c>
       <c r="G74">
-        <v>0.0273219579227085</v>
+        <v>0.00267584647831499</v>
       </c>
       <c r="H74">
-        <v>-0.0215741559296445</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.01491614760151515</v>
+      </c>
+      <c r="I74">
+        <v>-0.1208904101211822</v>
+      </c>
+      <c r="J74">
+        <v>-0.08445672457746263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09775051022404276</v>
+        <v>0.1299284086771441</v>
       </c>
       <c r="C75">
-        <v>0.02025024053581082</v>
+        <v>0.0285505394317874</v>
       </c>
       <c r="D75">
-        <v>-0.007294360898202048</v>
+        <v>-0.02252580195178221</v>
       </c>
       <c r="E75">
-        <v>0.06935214098886835</v>
+        <v>0.009401225251743191</v>
       </c>
       <c r="F75">
-        <v>0.0583124023295019</v>
+        <v>-0.01549850663787971</v>
       </c>
       <c r="G75">
-        <v>0.01268213838910934</v>
+        <v>-0.01742032920393616</v>
       </c>
       <c r="H75">
-        <v>-0.02441484720763873</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.003339590086408253</v>
+      </c>
+      <c r="I75">
+        <v>-0.03614928404011173</v>
+      </c>
+      <c r="J75">
+        <v>-0.06909616739465868</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1468326017684347</v>
+        <v>0.04037340833259525</v>
       </c>
       <c r="C76">
-        <v>0.03183294043830862</v>
+        <v>-0.007314895885434236</v>
       </c>
       <c r="D76">
-        <v>0.03171775030005811</v>
+        <v>-0.008511208143034637</v>
       </c>
       <c r="E76">
-        <v>0.05065559910867835</v>
+        <v>0.02172032498775099</v>
       </c>
       <c r="F76">
-        <v>0.1901339692423574</v>
+        <v>-0.02397223297830262</v>
       </c>
       <c r="G76">
-        <v>0.01289899728875764</v>
+        <v>0.04644495275524384</v>
       </c>
       <c r="H76">
-        <v>-0.04859771091649664</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.04175441297862673</v>
+      </c>
+      <c r="I76">
+        <v>-0.03906404618786017</v>
+      </c>
+      <c r="J76">
+        <v>-0.04783736960974291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.07439561174031772</v>
+        <v>0.09096532641022194</v>
       </c>
       <c r="C77">
-        <v>-0.01652730829039263</v>
+        <v>0.07866078573838951</v>
       </c>
       <c r="D77">
-        <v>0.0007893435601780976</v>
+        <v>-0.01345919503875065</v>
       </c>
       <c r="E77">
-        <v>-0.1187634181015237</v>
+        <v>-0.01794962502667164</v>
       </c>
       <c r="F77">
-        <v>-0.2014647173028954</v>
+        <v>0.01310941940710744</v>
       </c>
       <c r="G77">
-        <v>-0.1292978420995805</v>
+        <v>-0.004645884735653427</v>
       </c>
       <c r="H77">
-        <v>0.2171435389589668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.06632013433527292</v>
+      </c>
+      <c r="I77">
+        <v>0.1858956901014889</v>
+      </c>
+      <c r="J77">
+        <v>0.17637965020695</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2302183075490435</v>
+        <v>0.1528611034390817</v>
       </c>
       <c r="C78">
-        <v>0.04014476580521729</v>
+        <v>0.02678922610397519</v>
       </c>
       <c r="D78">
-        <v>0.1638901836452858</v>
+        <v>-0.1372463569680211</v>
       </c>
       <c r="E78">
-        <v>-0.08479280955426846</v>
+        <v>0.2626267488321469</v>
       </c>
       <c r="F78">
-        <v>-0.1169311075439625</v>
+        <v>-0.3573985539393444</v>
       </c>
       <c r="G78">
-        <v>-0.1725359395836804</v>
+        <v>-0.03932283314717374</v>
       </c>
       <c r="H78">
-        <v>-0.1196313585808603</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5031114260261136</v>
+      </c>
+      <c r="I78">
+        <v>0.6108950597441251</v>
+      </c>
+      <c r="J78">
+        <v>-0.1407621714252601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1371119131000276</v>
+        <v>0.145865770670641</v>
       </c>
       <c r="C79">
-        <v>0.01674368121254249</v>
+        <v>0.0212850706194177</v>
       </c>
       <c r="D79">
-        <v>-0.00815906962754207</v>
+        <v>-0.04153697604278826</v>
       </c>
       <c r="E79">
-        <v>0.05147496056021512</v>
+        <v>-0.01021496379725923</v>
       </c>
       <c r="F79">
-        <v>0.07243856752739225</v>
+        <v>-0.008482877919608948</v>
       </c>
       <c r="G79">
-        <v>-0.02397608000234386</v>
+        <v>0.02216163944266866</v>
       </c>
       <c r="H79">
-        <v>-0.08085120661046295</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.0002431498867616021</v>
+      </c>
+      <c r="I79">
+        <v>-0.1118068213589829</v>
+      </c>
+      <c r="J79">
+        <v>-0.06885479421387933</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.04272536722796731</v>
+        <v>0.08046849494305289</v>
       </c>
       <c r="C80">
-        <v>-0.009638218332731107</v>
+        <v>0.03613588446071431</v>
       </c>
       <c r="D80">
-        <v>-0.1038590903537891</v>
+        <v>0.02177522890881313</v>
       </c>
       <c r="E80">
-        <v>-0.04591798007038463</v>
+        <v>0.03223136650008066</v>
       </c>
       <c r="F80">
-        <v>-0.04319087726209336</v>
+        <v>0.04396768226516503</v>
       </c>
       <c r="G80">
-        <v>-0.007682366181798568</v>
+        <v>-0.01097451339727509</v>
       </c>
       <c r="H80">
-        <v>-0.1168741669704714</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.01354049171920685</v>
+      </c>
+      <c r="I80">
+        <v>0.02524568150409856</v>
+      </c>
+      <c r="J80">
+        <v>-0.1289503111069545</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1094500635483863</v>
+        <v>0.1497333100565099</v>
       </c>
       <c r="C81">
-        <v>0.004270671685763505</v>
+        <v>0.03473489540134045</v>
       </c>
       <c r="D81">
-        <v>-0.001389204780329154</v>
+        <v>-0.02604020920539323</v>
       </c>
       <c r="E81">
-        <v>0.02371681376242881</v>
+        <v>0.02163345291709365</v>
       </c>
       <c r="F81">
-        <v>0.1106731401410633</v>
+        <v>-0.02070650473753062</v>
       </c>
       <c r="G81">
-        <v>-0.03831686592405729</v>
+        <v>0.003086738146445033</v>
       </c>
       <c r="H81">
-        <v>-0.0426427186023689</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.01531912162134648</v>
+      </c>
+      <c r="I81">
+        <v>-0.03095951651172333</v>
+      </c>
+      <c r="J81">
+        <v>-0.1285837329611327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1206695117825311</v>
+        <v>0.165445229072858</v>
       </c>
       <c r="C82">
-        <v>0.02241212861534055</v>
+        <v>0.04068840005680931</v>
       </c>
       <c r="D82">
-        <v>-0.01930094558166306</v>
+        <v>0.01183846473211299</v>
       </c>
       <c r="E82">
-        <v>-0.01872412393716544</v>
+        <v>-0.0004801159459686441</v>
       </c>
       <c r="F82">
-        <v>0.208941340089786</v>
+        <v>0.002328325102440361</v>
       </c>
       <c r="G82">
-        <v>-0.02673793741017831</v>
+        <v>0.05277735945826075</v>
       </c>
       <c r="H82">
-        <v>-0.07540334407744329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.03372990259361029</v>
+      </c>
+      <c r="I82">
+        <v>-0.1523742260478087</v>
+      </c>
+      <c r="J82">
+        <v>-0.1538774714574145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1128165162166317</v>
+        <v>0.08903852619143772</v>
       </c>
       <c r="C83">
-        <v>0.04497589456709006</v>
+        <v>0.01747479050898669</v>
       </c>
       <c r="D83">
-        <v>-0.0237852015448878</v>
+        <v>0.008559684171858354</v>
       </c>
       <c r="E83">
-        <v>-0.07932511465940299</v>
+        <v>-0.05035170439693875</v>
       </c>
       <c r="F83">
-        <v>-0.03719629806143047</v>
+        <v>-0.04494844449726739</v>
       </c>
       <c r="G83">
-        <v>-0.05426514158009143</v>
+        <v>-0.05745729013403363</v>
       </c>
       <c r="H83">
-        <v>0.0627144373935349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.02726303683562032</v>
+      </c>
+      <c r="I83">
+        <v>0.06054972848816624</v>
+      </c>
+      <c r="J83">
+        <v>-0.1266812203308816</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.04932100495524436</v>
+        <v>0.06816237811004551</v>
       </c>
       <c r="C84">
-        <v>0.03135384088489152</v>
+        <v>0.02079664331312014</v>
       </c>
       <c r="D84">
-        <v>0.01274604394228902</v>
+        <v>0.00156250602142348</v>
       </c>
       <c r="E84">
-        <v>0.04833919600780274</v>
+        <v>-0.01373158523385562</v>
       </c>
       <c r="F84">
-        <v>0.06240010297145048</v>
+        <v>0.09097087580319098</v>
       </c>
       <c r="G84">
-        <v>0.001557546759020233</v>
+        <v>0.02603278288065062</v>
       </c>
       <c r="H84">
-        <v>-0.05235291724041012</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.07053441426305324</v>
+      </c>
+      <c r="I84">
+        <v>0.1088388272809348</v>
+      </c>
+      <c r="J84">
+        <v>0.1140903604117566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1114024913021528</v>
+        <v>0.122813910589483</v>
       </c>
       <c r="C85">
-        <v>0.0164459486822122</v>
+        <v>0.006568937821593092</v>
       </c>
       <c r="D85">
-        <v>-0.008061368976865489</v>
+        <v>-0.0112364698852811</v>
       </c>
       <c r="E85">
-        <v>0.07074708080016077</v>
+        <v>-0.009378770292551094</v>
       </c>
       <c r="F85">
-        <v>0.1097547665446152</v>
+        <v>-0.01231337064426355</v>
       </c>
       <c r="G85">
-        <v>-0.0597556717871934</v>
+        <v>0.01895360756460546</v>
       </c>
       <c r="H85">
-        <v>-0.1239170296692675</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.002328155760475831</v>
+      </c>
+      <c r="I85">
+        <v>-0.07404704426231529</v>
+      </c>
+      <c r="J85">
+        <v>-0.07055534114113472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06400803865785852</v>
+        <v>0.1036721788386482</v>
       </c>
       <c r="C86">
-        <v>0.02435553251776606</v>
+        <v>-0.06491529815091782</v>
       </c>
       <c r="D86">
-        <v>0.03364019212540974</v>
+        <v>-0.3317035517613204</v>
       </c>
       <c r="E86">
-        <v>-0.1031714887733543</v>
+        <v>-0.8667563468469865</v>
       </c>
       <c r="F86">
-        <v>0.04473522317347658</v>
+        <v>-0.11289228881731</v>
       </c>
       <c r="G86">
-        <v>0.08838219613580008</v>
+        <v>-0.09972915853349006</v>
       </c>
       <c r="H86">
-        <v>-0.1742237522726049</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.06699122532133256</v>
+      </c>
+      <c r="I86">
+        <v>0.2026611155613369</v>
+      </c>
+      <c r="J86">
+        <v>-0.04287234276286598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1168113019502532</v>
+        <v>0.116442785313983</v>
       </c>
       <c r="C87">
-        <v>0.04659963172624131</v>
+        <v>0.07606151690857199</v>
       </c>
       <c r="D87">
-        <v>0.02864193718019632</v>
+        <v>0.06929499509746206</v>
       </c>
       <c r="E87">
-        <v>-0.02839856691198004</v>
+        <v>-0.007073411530859866</v>
       </c>
       <c r="F87">
-        <v>-0.07990616058262554</v>
+        <v>5.364183307923062e-05</v>
       </c>
       <c r="G87">
-        <v>-0.1087483639773739</v>
+        <v>0.01483247243253991</v>
       </c>
       <c r="H87">
-        <v>-0.01083480494236487</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.04279844845392485</v>
+      </c>
+      <c r="I87">
+        <v>0.1835637189480698</v>
+      </c>
+      <c r="J87">
+        <v>0.05598717235644271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07380301497484722</v>
+        <v>0.05935619524074983</v>
       </c>
       <c r="C88">
-        <v>0.04352581881357987</v>
+        <v>0.03418550921229885</v>
       </c>
       <c r="D88">
-        <v>0.01021287156910658</v>
+        <v>-0.02820131721217901</v>
       </c>
       <c r="E88">
-        <v>-0.02190065495352438</v>
+        <v>0.03400611493920003</v>
       </c>
       <c r="F88">
-        <v>0.01402886003515388</v>
+        <v>0.0530790824945223</v>
       </c>
       <c r="G88">
-        <v>-0.05461661292118645</v>
+        <v>0.007598430323073531</v>
       </c>
       <c r="H88">
-        <v>-0.02391889995196651</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.0115447110640867</v>
+      </c>
+      <c r="I88">
+        <v>0.02841412315963742</v>
+      </c>
+      <c r="J88">
+        <v>-0.0561997419605898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09385700996831486</v>
+        <v>0.0912693080706853</v>
       </c>
       <c r="C89">
-        <v>-0.38768369173819</v>
+        <v>-0.3782210850972437</v>
       </c>
       <c r="D89">
-        <v>0.01720900499101817</v>
+        <v>0.06598114188955946</v>
       </c>
       <c r="E89">
-        <v>-0.04544666909713537</v>
+        <v>0.01141936275538599</v>
       </c>
       <c r="F89">
-        <v>-0.006019359215214923</v>
+        <v>-0.004406923396510568</v>
       </c>
       <c r="G89">
-        <v>0.002436639524892102</v>
+        <v>0.0327018741623414</v>
       </c>
       <c r="H89">
-        <v>0.02107868262294036</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.03383482522882256</v>
+      </c>
+      <c r="I89">
+        <v>0.04128104811960948</v>
+      </c>
+      <c r="J89">
+        <v>-0.03807304470381374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07185267344514516</v>
+        <v>0.06620047853092825</v>
       </c>
       <c r="C90">
-        <v>-0.3019033354873133</v>
+        <v>-0.3043824655359844</v>
       </c>
       <c r="D90">
-        <v>0.03152765784344411</v>
+        <v>0.04913406928987119</v>
       </c>
       <c r="E90">
-        <v>-0.01211736806983056</v>
+        <v>0.02258615524066689</v>
       </c>
       <c r="F90">
-        <v>0.006562367307112747</v>
+        <v>0.06153729175017558</v>
       </c>
       <c r="G90">
-        <v>-0.02873214817536682</v>
+        <v>-0.000921728219875567</v>
       </c>
       <c r="H90">
-        <v>0.03889777888280373</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06868488172535932</v>
+      </c>
+      <c r="I90">
+        <v>0.03300335487267436</v>
+      </c>
+      <c r="J90">
+        <v>0.02181659509070766</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08420748151936167</v>
+        <v>0.09423008355912474</v>
       </c>
       <c r="C91">
-        <v>0.03087280046856573</v>
+        <v>0.01892529037120754</v>
       </c>
       <c r="D91">
-        <v>0.004964335694651044</v>
+        <v>-0.01913957961856312</v>
       </c>
       <c r="E91">
-        <v>0.01394825871952067</v>
+        <v>-0.01447078653501334</v>
       </c>
       <c r="F91">
-        <v>0.04227424341405066</v>
+        <v>-0.01760043638043161</v>
       </c>
       <c r="G91">
-        <v>0.03047991733321276</v>
+        <v>0.02017878666923434</v>
       </c>
       <c r="H91">
-        <v>0.008363915580277407</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.0006353067647907894</v>
+      </c>
+      <c r="I91">
+        <v>-0.04565505006140018</v>
+      </c>
+      <c r="J91">
+        <v>-0.05811028222034987</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06756494813246799</v>
+        <v>0.07752090445643603</v>
       </c>
       <c r="C92">
-        <v>-0.3605006860252177</v>
+        <v>-0.3421034842860368</v>
       </c>
       <c r="D92">
-        <v>0.02169003204263459</v>
+        <v>0.0790539661227425</v>
       </c>
       <c r="E92">
-        <v>-0.01895189836042673</v>
+        <v>0.01079727368014172</v>
       </c>
       <c r="F92">
-        <v>-0.05445240438876284</v>
+        <v>0.01191379394000507</v>
       </c>
       <c r="G92">
-        <v>0.01303973222029035</v>
+        <v>-0.02478511813892584</v>
       </c>
       <c r="H92">
-        <v>0.02910537329065035</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.06369172193275879</v>
+      </c>
+      <c r="I92">
+        <v>0.03152596887108151</v>
+      </c>
+      <c r="J92">
+        <v>-0.06564926938883968</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08455316276066066</v>
+        <v>0.07263253965489361</v>
       </c>
       <c r="C93">
-        <v>-0.31288335537252</v>
+        <v>-0.3297868070938178</v>
       </c>
       <c r="D93">
-        <v>-0.01785956336988322</v>
+        <v>0.05150640220072995</v>
       </c>
       <c r="E93">
-        <v>-0.006583647841100686</v>
+        <v>0.008142982467210885</v>
       </c>
       <c r="F93">
-        <v>-0.01747319989604103</v>
+        <v>0.06640521543534768</v>
       </c>
       <c r="G93">
-        <v>0.02973034401053224</v>
+        <v>0.00285959132789668</v>
       </c>
       <c r="H93">
-        <v>0.002533180987696445</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.04643519615985544</v>
+      </c>
+      <c r="I93">
+        <v>0.04014440520462434</v>
+      </c>
+      <c r="J93">
+        <v>-0.006911593457403479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09766252571652706</v>
+        <v>0.149176873887141</v>
       </c>
       <c r="C94">
-        <v>0.04991143334478682</v>
+        <v>0.0334120990647256</v>
       </c>
       <c r="D94">
-        <v>0.007557483821171976</v>
+        <v>-0.02265117862237176</v>
       </c>
       <c r="E94">
-        <v>0.02558434251220755</v>
+        <v>0.04678103813871441</v>
       </c>
       <c r="F94">
-        <v>0.08510510261180891</v>
+        <v>-0.03153114395054327</v>
       </c>
       <c r="G94">
-        <v>0.01200935210484064</v>
+        <v>0.009809273789764397</v>
       </c>
       <c r="H94">
-        <v>-0.03991154363703955</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.002122494480926333</v>
+      </c>
+      <c r="I94">
+        <v>-0.03047018064384425</v>
+      </c>
+      <c r="J94">
+        <v>-0.03034629570666704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1311895668713456</v>
+        <v>0.1326621970001449</v>
       </c>
       <c r="C95">
-        <v>0.05956857425313217</v>
+        <v>0.048792211371623</v>
       </c>
       <c r="D95">
-        <v>0.07621069910852551</v>
+        <v>-0.03534656056324316</v>
       </c>
       <c r="E95">
-        <v>-0.06577654418107977</v>
+        <v>0.04303278798993214</v>
       </c>
       <c r="F95">
-        <v>-0.1723331804120678</v>
+        <v>0.01189350539466721</v>
       </c>
       <c r="G95">
-        <v>-0.04609049719080334</v>
+        <v>0.01896656235899704</v>
       </c>
       <c r="H95">
-        <v>-0.03616634006854495</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1010154290724981</v>
+      </c>
+      <c r="I95">
+        <v>0.1461362505703969</v>
+      </c>
+      <c r="J95">
+        <v>0.1198866752095736</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01072949946802442</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.006243667253418743</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.005827810398925124</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>5.09974034077166e-05</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.001230991892868969</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.008798518739911686</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.00866670943197455</v>
+      </c>
+      <c r="I96">
+        <v>0.01931708416256197</v>
+      </c>
+      <c r="J96">
+        <v>0.01174209881966665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1387336513880215</v>
+        <v>0.1684441367143326</v>
       </c>
       <c r="C97">
-        <v>-0.03440845271364962</v>
+        <v>-0.03277951775099835</v>
       </c>
       <c r="D97">
-        <v>-0.1606357183505298</v>
+        <v>-0.04137166681793901</v>
       </c>
       <c r="E97">
-        <v>0.877265354990597</v>
+        <v>0.07350147074335213</v>
       </c>
       <c r="F97">
-        <v>-0.1895849744324633</v>
+        <v>-0.08885501768418301</v>
       </c>
       <c r="G97">
-        <v>-0.04625254386925879</v>
+        <v>-0.8667124691825924</v>
       </c>
       <c r="H97">
-        <v>0.04520257989460764</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1558028652523277</v>
+      </c>
+      <c r="I97">
+        <v>-0.278134513990361</v>
+      </c>
+      <c r="J97">
+        <v>0.1609278981968468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3192079958292416</v>
+        <v>0.2381441013133218</v>
       </c>
       <c r="C98">
-        <v>0.06812042613526759</v>
+        <v>-0.04531010172654319</v>
       </c>
       <c r="D98">
-        <v>-0.1762122652235776</v>
+        <v>0.07926333895485518</v>
       </c>
       <c r="E98">
-        <v>-0.1327829373371207</v>
+        <v>-0.1478559083397523</v>
       </c>
       <c r="F98">
-        <v>0.05847562126646746</v>
+        <v>-0.1610281966866372</v>
       </c>
       <c r="G98">
-        <v>0.2199743447860808</v>
+        <v>0.1633457992814169</v>
       </c>
       <c r="H98">
-        <v>0.1625364222581332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.3583176014991293</v>
+      </c>
+      <c r="I98">
+        <v>-0.2979249078358668</v>
+      </c>
+      <c r="J98">
+        <v>-0.3035702939290781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.090923615298019</v>
+        <v>0.06218979261139847</v>
       </c>
       <c r="C99">
-        <v>0.01718754964503586</v>
+        <v>0.003259712657286003</v>
       </c>
       <c r="D99">
-        <v>0.01594489240977118</v>
+        <v>-0.02596315777780151</v>
       </c>
       <c r="E99">
-        <v>0.008186545124470463</v>
+        <v>0.05012208028899232</v>
       </c>
       <c r="F99">
-        <v>0.02286053902885567</v>
+        <v>0.01151580380795487</v>
       </c>
       <c r="G99">
-        <v>-0.007910373175694452</v>
+        <v>0.01574810162487705</v>
       </c>
       <c r="H99">
-        <v>0.07878882880746532</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.03367186164371452</v>
+      </c>
+      <c r="I99">
+        <v>-0.003501102193910003</v>
+      </c>
+      <c r="J99">
+        <v>0.01524733546409833</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.09151500689172837</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.1651845186502696</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8932711072583984</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.257451216234067</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.07941103766910228</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.08766070729649299</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.0261834455339167</v>
+      </c>
+      <c r="I100">
+        <v>0.1449645370977408</v>
+      </c>
+      <c r="J100">
+        <v>-0.006067630513932115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.06002869617944807</v>
+        <v>0.037176368054516</v>
       </c>
       <c r="C101">
-        <v>-0.00419422844655739</v>
+        <v>0.001199378346346616</v>
       </c>
       <c r="D101">
-        <v>0.03942043634771163</v>
+        <v>0.007702382875750486</v>
       </c>
       <c r="E101">
-        <v>-0.02836293805511916</v>
+        <v>0.01069473617066112</v>
       </c>
       <c r="F101">
-        <v>0.007411532077391463</v>
+        <v>0.02297491410176159</v>
       </c>
       <c r="G101">
-        <v>-0.03744208692987248</v>
+        <v>0.007219667124093856</v>
       </c>
       <c r="H101">
-        <v>-0.1018397105690261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.04892143909375087</v>
+      </c>
+      <c r="I101">
+        <v>0.01768549611685006</v>
+      </c>
+      <c r="J101">
+        <v>-0.1118641197628573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
